--- a/General Pages of Directory.xlsx
+++ b/General Pages of Directory.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\live_project\lions_clubs_International\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BA540-3EC8-487F-9975-F89C47867631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E20865-F49D-4AF0-A3AD-F009AFD25541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$E$75</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2190,10 +2193,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2221,7 +2225,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2336,7 +2340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2438,7 +2442,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2470,7 +2474,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2521,7 +2525,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>About us &gt; Profiles &gt; DG Team</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2642,7 +2646,7 @@
         <v>About us &gt; Profiles &gt; DG Team</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>About us &gt; Profiles &gt; DG Team</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>About us &gt; Profiles &gt; DG Team</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>About us &gt; Profiles &gt; DG Team</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2714,7 +2718,7 @@
         <v>About us &gt; Profiles &gt; DG Team</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2731,7 +2735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2748,7 +2752,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2783,7 +2787,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>About Lions &gt; Profiles</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2923,7 +2927,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>About Lions &gt; About MD 324</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2956,7 +2960,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2971,7 +2975,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3005,7 +3009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3086,7 +3090,7 @@
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3101,7 +3105,7 @@
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3116,7 +3120,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3131,7 +3135,7 @@
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3146,7 +3150,7 @@
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3161,7 +3165,7 @@
       </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>Resources &gt; Organogram</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3302,7 +3306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3372,7 +3376,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>Resources &gt; Club Mangement Tools</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3407,7 +3411,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3422,7 +3426,7 @@
       </c>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3473,6 +3477,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E75" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="(highlight main points)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3481,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
